--- a/example/subconfig_two.xlsx
+++ b/example/subconfig_two.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\java\ConfigTool\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B20E5D-B057-4B0E-92BA-AAF556EC28C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C16F918-C98E-4C40-8B6E-526A7576CCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,136 +130,138 @@
     <t>List&lt;List&lt;int&gt;{,}&gt;{;}</t>
   </si>
   <si>
+    <t>Set&lt;int&gt;{,}</t>
+  </si>
+  <si>
+    <t>Date&lt;yyyy-MM-dd HH:mm&gt;</t>
+  </si>
+  <si>
+    <t>List&lt;Date&lt;yyyy-MM-dd HH:mm&gt;&gt;{;}</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>intExample</t>
+  </si>
+  <si>
+    <t>byteExample</t>
+  </si>
+  <si>
+    <t>floatExample</t>
+  </si>
+  <si>
+    <t>stringExample</t>
+  </si>
+  <si>
+    <t>enumExample2</t>
+  </si>
+  <si>
+    <t>listEnumExample2</t>
+  </si>
+  <si>
+    <t>IntlistExample</t>
+  </si>
+  <si>
+    <t>List2IntExample</t>
+  </si>
+  <si>
+    <t>IntStrMap</t>
+  </si>
+  <si>
+    <t>MapListStringExample</t>
+  </si>
+  <si>
+    <t>MapLenLimitExample</t>
+  </si>
+  <si>
+    <t>SetExample</t>
+  </si>
+  <si>
+    <t>DateExampleShow</t>
+  </si>
+  <si>
+    <t>ListDateExampleShow</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>测试行1</t>
+  </si>
+  <si>
+    <t>ceshi</t>
+  </si>
+  <si>
+    <t>ceshi1</t>
+  </si>
+  <si>
+    <t>ceshi1,ceshi2</t>
+  </si>
+  <si>
+    <t>100,101,102</t>
+  </si>
+  <si>
+    <t>100,101;200;301,302,30</t>
+  </si>
+  <si>
+    <t>100,101a;200,100b;301,302</t>
+  </si>
+  <si>
+    <t>100,101a;200,100b-d;301,302</t>
+  </si>
+  <si>
+    <t>100,101a;200,100b</t>
+  </si>
+  <si>
+    <t>100,200,300</t>
+  </si>
+  <si>
+    <t>2023-12-14 19:01</t>
+  </si>
+  <si>
+    <t>2023-12-14 19:01;2024-12-14 19:02</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>测试行2</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>2001,200a</t>
+  </si>
+  <si>
+    <t>2001,200a-200b</t>
+  </si>
+  <si>
+    <t>200,201b;</t>
+  </si>
+  <si>
+    <t>4000,500</t>
+  </si>
+  <si>
+    <t>2023-12-14 19:02</t>
+  </si>
+  <si>
+    <t>2023-12-15 19:01;2024-12-15  19:02</t>
+  </si>
+  <si>
     <t>Map&lt;int{,}String&gt;{;}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Map&lt;int{,}List&lt;String&gt;{-}&gt;{;}</t>
-  </si>
-  <si>
-    <t>Set&lt;int&gt;{,}</t>
-  </si>
-  <si>
-    <t>Date&lt;yyyy-MM-dd HH:mm&gt;</t>
-  </si>
-  <si>
-    <t>List&lt;Date&lt;yyyy-MM-dd HH:mm&gt;&gt;{;}</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>intExample</t>
-  </si>
-  <si>
-    <t>byteExample</t>
-  </si>
-  <si>
-    <t>floatExample</t>
-  </si>
-  <si>
-    <t>stringExample</t>
-  </si>
-  <si>
-    <t>enumExample2</t>
-  </si>
-  <si>
-    <t>listEnumExample2</t>
-  </si>
-  <si>
-    <t>IntlistExample</t>
-  </si>
-  <si>
-    <t>List2IntExample</t>
-  </si>
-  <si>
-    <t>IntStrMap</t>
-  </si>
-  <si>
-    <t>MapListStringExample</t>
-  </si>
-  <si>
-    <t>MapLenLimitExample</t>
-  </si>
-  <si>
-    <t>SetExample</t>
-  </si>
-  <si>
-    <t>DateExampleShow</t>
-  </si>
-  <si>
-    <t>ListDateExampleShow</t>
-  </si>
-  <si>
-    <t>client</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>测试行1</t>
-  </si>
-  <si>
-    <t>ceshi</t>
-  </si>
-  <si>
-    <t>ceshi1</t>
-  </si>
-  <si>
-    <t>ceshi1,ceshi2</t>
-  </si>
-  <si>
-    <t>100,101,102</t>
-  </si>
-  <si>
-    <t>100,101;200;301,302,30</t>
-  </si>
-  <si>
-    <t>100,101a;200,100b;301,302</t>
-  </si>
-  <si>
-    <t>100,101a;200,100b-d;301,302</t>
-  </si>
-  <si>
-    <t>100,101a;200,100b</t>
-  </si>
-  <si>
-    <t>100,200,300</t>
-  </si>
-  <si>
-    <t>2023-12-14 19:01</t>
-  </si>
-  <si>
-    <t>2023-12-14 19:01;2024-12-14 19:02</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>测试行2</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>2001,200a</t>
-  </si>
-  <si>
-    <t>2001,200a-200b</t>
-  </si>
-  <si>
-    <t>200,201b;</t>
-  </si>
-  <si>
-    <t>4000,500</t>
-  </si>
-  <si>
-    <t>2023-12-14 19:02</t>
-  </si>
-  <si>
-    <t>2023-12-15 19:01;2024-12-15  19:02</t>
-  </si>
-  <si>
-    <t>Map&lt;int{,}String&gt;{;}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map&lt;int{,}Int&gt;{;}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -710,9 +712,9 @@
   </sheetPr>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -812,23 +814,23 @@
       <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
@@ -836,49 +838,49 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
@@ -886,7 +888,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -903,10 +905,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4">
         <v>100</v>
@@ -918,45 +920,45 @@
         <v>100.11</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="4">
         <v>200.01</v>
@@ -968,13 +970,13 @@
         <v>200.00001</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" s="4">
         <v>2001</v>
@@ -983,22 +985,22 @@
         <v>6666</v>
       </c>
       <c r="K6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
